--- a/data/trans_dic/IP1020-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1020-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,84</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,67</t>
+          <t>0,64; 3,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,61</t>
+          <t>0,65; 3,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,22</t>
+          <t>1,57; 6,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,51</t>
+          <t>0,29; 2,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,56</t>
+          <t>1,78; 5,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,0</t>
+          <t>0,27; 2,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,79</t>
+          <t>1,94; 6,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,44</t>
+          <t>0,28; 1,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,09</t>
+          <t>1,5; 3,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,67</t>
+          <t>0,66; 2,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,58</t>
+          <t>2,34; 5,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>1,05%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,78%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,17; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,83</t>
+          <t>0,28; 2,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,45</t>
+          <t>0,87; 3,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,44</t>
+          <t>1,95; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,76</t>
+          <t>0,24; 2,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,83</t>
+          <t>0,23; 2,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,4</t>
+          <t>0,51; 3,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,87</t>
+          <t>2,09; 5,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,63</t>
+          <t>0,25; 1,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,92</t>
+          <t>0,51; 2,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,52</t>
+          <t>0,87; 2,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,65</t>
+          <t>2,35; 4,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1020-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1020-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,37 +656,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,22 +696,22 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,34</t>
+          <t>0,56; 5,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,96</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,37</t>
+          <t>0,52; 5,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,88</t>
+          <t>0; 1,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0; 1,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,01</t>
+          <t>1,8; 7,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,57</t>
+          <t>0,41; 3,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,4</t>
+          <t>0,86; 8,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,42</t>
+          <t>0,3; 2,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,9</t>
+          <t>1,33; 4,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,75</t>
+          <t>0,73; 3,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,24</t>
+          <t>0,42; 4,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,22 +796,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,37 +821,37 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,24; 2,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,83</t>
+          <t>0,86; 3,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,45</t>
+          <t>0,63; 3,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,44</t>
+          <t>2,8; 8,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,76</t>
+          <t>0,28; 2,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,83</t>
+          <t>2,1; 6,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,4</t>
+          <t>0,56; 3,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,87</t>
+          <t>1,69; 7,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,63</t>
+          <t>0,38; 1,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,92</t>
+          <t>1,91; 4,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,52</t>
+          <t>0,91; 2,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,65</t>
+          <t>2,8; 6,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,84</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,67</t>
+          <t>0,42; 4,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,61</t>
+          <t>0,57; 4,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,22</t>
+          <t>2,54; 8,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,51</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,56</t>
+          <t>0,3; 3,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,0</t>
+          <t>0,27; 3,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,79</t>
+          <t>1,8; 6,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,44</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,09</t>
+          <t>0,64; 3,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,67</t>
+          <t>0,58; 2,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,58</t>
+          <t>2,7; 6,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1081,57 +1081,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,55</t>
+          <t>0,23; 2,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,23</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,79</t>
+          <t>0,41; 3,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,57</t>
+          <t>0,92; 3,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,55</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,68</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,18</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,96</t>
+          <t>1,63; 5,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,29</t>
+          <t>0,28; 1,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,61</t>
+          <t>0,17; 1,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,12</t>
+          <t>0,58; 2,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,31</t>
+          <t>1,58; 3,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 1,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 2,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 2,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 4,68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 1,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 3,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 2,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 4,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 1,36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 2,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 2,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 4,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP1020-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1020-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,01</t>
+          <t>0,56; 5,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,31</t>
+          <t>0,53; 5,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,16</t>
+          <t>1,8; 7,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,82</t>
+          <t>0,4; 4,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,89</t>
+          <t>0,86; 9,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,98</t>
+          <t>0,3; 2,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,48</t>
+          <t>1,29; 4,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,34</t>
+          <t>0,73; 3,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,49</t>
+          <t>0,42; 4,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,24</t>
+          <t>0,23; 2,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,91</t>
+          <t>0,96; 3,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,28</t>
+          <t>0,58; 3,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 8,25</t>
+          <t>2,8; 8,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,64</t>
+          <t>0,25; 2,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,5</t>
+          <t>2,26; 6,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,42</t>
+          <t>0,59; 3,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,0</t>
+          <t>1,76; 7,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,68</t>
+          <t>0,38; 1,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,42</t>
+          <t>1,78; 4,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,86</t>
+          <t>0,87; 2,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,66</t>
+          <t>2,77; 6,42</t>
         </is>
       </c>
     </row>
@@ -1009,57 +1009,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,62</t>
+          <t>0,41; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,12</t>
+          <t>0,37; 4,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,0</t>
+          <t>2,65; 8,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,49</t>
+          <t>0,3; 3,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,13</t>
+          <t>0,34; 3,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,93</t>
+          <t>1,7; 7,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,1</t>
+          <t>0,65; 3,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,82</t>
+          <t>0,55; 2,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,62</t>
+          <t>2,79; 6,42</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,49</t>
+          <t>0,23; 2,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,68</t>
+          <t>0,39; 3,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,89</t>
+          <t>0,81; 3,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,01</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>0,35; 3,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,76</t>
+          <t>1,53; 5,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,83</t>
+          <t>0,29; 1,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,58</t>
+          <t>0,17; 1,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,75</t>
+          <t>0,59; 2,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,85</t>
+          <t>1,56; 3,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,58</t>
+          <t>0,46; 1,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,27</t>
+          <t>0,85; 2,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,56</t>
+          <t>1,04; 2,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,68</t>
+          <t>2,33; 4,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,51</t>
+          <t>0,37; 1,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,78</t>
+          <t>1,82; 3,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,11</t>
+          <t>0,76; 2,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,91</t>
+          <t>2,38; 4,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,36</t>
+          <t>0,5; 1,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,64</t>
+          <t>1,45; 2,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,04</t>
+          <t>1,06; 2,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,26</t>
+          <t>2,59; 4,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1020-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1020-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,44 +656,44 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,24%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,89%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>2,1%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,91%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>1,2%</t>
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,18</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 7,61</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 3,99</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 8,94</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0,56; 5,57</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 5,32</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,78</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 1,64</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,18</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,8; 7,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 4,11</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 9,24</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,71</t>
+          <t>0,3; 2,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,36</t>
+          <t>1,09; 4,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,31</t>
+          <t>0,72; 3,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,78</t>
+          <t>0,38; 4,04</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,74%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>2,07%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>1,63%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,01%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,1</t>
+          <t>0,28; 2,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,99</t>
+          <t>2,28; 6,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,38</t>
+          <t>0,53; 3,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 8,75</t>
+          <t>1,73; 7,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,53</t>
+          <t>0,24; 2,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,73</t>
+          <t>1,04; 4,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,26</t>
+          <t>0,53; 3,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,17</t>
+          <t>2,74; 8,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,84</t>
+          <t>0,38; 1,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,34</t>
+          <t>1,95; 4,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,72</t>
+          <t>0,83; 2,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,42</t>
+          <t>2,7; 6,37</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>1,83%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1,67%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,77%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,35%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,03</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 3,44</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 3,14</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 7,1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,9</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 4,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 4,1</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 8,12</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,13</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,48</t>
+          <t>0,6; 4,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,2</t>
+          <t>0,38; 4,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,04</t>
+          <t>2,5; 8,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,26</t>
+          <t>0,58; 3,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,7</t>
+          <t>0,55; 2,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,42</t>
+          <t>2,69; 6,37</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,89%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,43%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>1,58%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,42</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,96</t>
+          <t>0,35; 3,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,69</t>
+          <t>1,4; 5,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,23; 2,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,22</t>
+          <t>0,4; 3,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,78</t>
+          <t>0,79; 3,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,78</t>
+          <t>0,29; 1,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,52</t>
+          <t>0,17; 1,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,66</t>
+          <t>0,58; 2,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,95</t>
+          <t>1,41; 3,78</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,89%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>1,4%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>1,71%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>3,3%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,56</t>
+          <t>0,31; 1,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,19</t>
+          <t>1,72; 3,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,52</t>
+          <t>0,75; 2,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,62</t>
+          <t>2,28; 4,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,46</t>
+          <t>0,45; 1,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,86</t>
+          <t>0,78; 2,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,12</t>
+          <t>1,03; 2,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,9</t>
+          <t>2,24; 4,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,29</t>
+          <t>0,52; 1,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,67</t>
+          <t>1,46; 2,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,08</t>
+          <t>1,09; 2,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,34</t>
+          <t>2,54; 4,21</t>
         </is>
       </c>
     </row>
